--- a/Windhexe Beschlaege.xlsx
+++ b/Windhexe Beschlaege.xlsx
@@ -665,7 +665,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -1023,7 +1022,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1101,13 +1100,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1231,10 +1223,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1287,8 +1275,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1297,6 +1285,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1388,29 +1380,29 @@
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
-      <selection pane="bottomRight" activeCell="R34" activeCellId="0" sqref="R34"/>
+      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="AA24" activeCellId="0" sqref="AA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="42.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="42.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,8 +1729,7 @@
         <v>3</v>
       </c>
       <c r="N15" s="2" t="n">
-        <f aca="false">SUM(N2:N13)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O15" s="2" t="n">
         <f aca="false">SUM(O2:O13)</f>
@@ -1873,7 +1864,7 @@
       </c>
       <c r="N20" s="2" t="n">
         <f aca="false">N15 -(SUM(N16:N18))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O20" s="2" t="n">
         <f aca="false">O15 -(SUM(O16:O18))</f>
@@ -1933,6 +1924,12 @@
         <v>8</v>
       </c>
       <c r="E21" s="5"/>
+      <c r="F21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="0" t="n">
         <v>2</v>
@@ -1946,7 +1943,16 @@
       <c r="L21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="O21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="S21" s="5"/>
@@ -1954,8 +1960,20 @@
       <c r="U21" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="V21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Y21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,8 +2030,6 @@
       <c r="E25" s="5"/>
       <c r="H25" s="5"/>
       <c r="J25" s="6"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
@@ -2021,51 +2037,47 @@
       <c r="B26" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="7" t="n">
         <v>15.1</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="7" t="n">
         <v>2.1</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>8.7</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="7" t="n">
         <v>25.9</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="7" t="n">
         <v>4.8</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="7" t="n">
         <v>56</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="8" t="n">
         <v>1.4</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>7.4</v>
       </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="10"/>
+      <c r="N26" s="9"/>
       <c r="P26" s="1" t="n">
         <v>11.6</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="7"/>
-      <c r="X26" s="11" t="n">
+      <c r="X26" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="10" t="n">
         <f aca="false">C26*C20</f>
         <v>75.5</v>
       </c>
-      <c r="D27" s="11" t="n">
+      <c r="D27" s="10" t="n">
         <f aca="false">D26*D20</f>
         <v>16.8</v>
       </c>
@@ -2085,11 +2097,11 @@
         <f aca="false">H26*H20</f>
         <v>0</v>
       </c>
-      <c r="I27" s="7" t="n">
+      <c r="I27" s="0" t="n">
         <f aca="false">I26*I20</f>
         <v>112</v>
       </c>
-      <c r="J27" s="12" t="n">
+      <c r="J27" s="11" t="n">
         <f aca="false">J26*J20</f>
         <v>8.4</v>
       </c>
@@ -2097,7 +2109,7 @@
         <f aca="false">K26*K20</f>
         <v>29.6</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="M27" s="0" t="n">
         <f aca="false">M26*M20</f>
         <v>0</v>
       </c>
@@ -2109,15 +2121,15 @@
         <f aca="false">O26*O20</f>
         <v>0</v>
       </c>
-      <c r="P27" s="13" t="n">
+      <c r="P27" s="12" t="n">
         <f aca="false">P26*4</f>
         <v>46.4</v>
       </c>
-      <c r="Q27" s="7" t="n">
+      <c r="Q27" s="0" t="n">
         <f aca="false">Q26*Q20</f>
         <v>0</v>
       </c>
-      <c r="R27" s="7" t="n">
+      <c r="R27" s="0" t="n">
         <f aca="false">R26*R20</f>
         <v>0</v>
       </c>
@@ -2129,11 +2141,11 @@
         <f aca="false">T26*T20</f>
         <v>0</v>
       </c>
-      <c r="U27" s="7" t="n">
+      <c r="U27" s="0" t="n">
         <f aca="false">U26*U20</f>
         <v>0</v>
       </c>
-      <c r="X27" s="13" t="n">
+      <c r="X27" s="12" t="n">
         <f aca="false">X26*X20</f>
         <v>2</v>
       </c>
@@ -2145,16 +2157,12 @@
       <c r="E28" s="5"/>
       <c r="H28" s="5"/>
       <c r="J28" s="6"/>
-      <c r="M28" s="7"/>
       <c r="N28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="P28" s="6"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
@@ -2163,44 +2171,42 @@
       <c r="E29" s="5"/>
       <c r="H29" s="5"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="11" t="n">
+      <c r="K29" s="10" t="n">
         <v>13.6</v>
       </c>
-      <c r="L29" s="11" t="n">
+      <c r="L29" s="10" t="n">
         <v>31.5</v>
       </c>
-      <c r="M29" s="7" t="n">
+      <c r="M29" s="0" t="n">
         <v>39.9</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="14" t="n">
+      <c r="O29" s="13" t="n">
         <v>14.5</v>
       </c>
-      <c r="P29" s="11" t="n">
+      <c r="P29" s="10" t="n">
         <v>9.9</v>
       </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="14" t="n">
+      <c r="U29" s="13" t="n">
         <v>13.9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15"/>
+      <c r="B30" s="14"/>
       <c r="E30" s="5"/>
       <c r="H30" s="5"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="13" t="n">
+      <c r="K30" s="12" t="n">
         <f aca="false">K29*K20</f>
         <v>54.4</v>
       </c>
-      <c r="L30" s="13" t="n">
+      <c r="L30" s="12" t="n">
         <f aca="false">L29*L20</f>
         <v>31.5</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="M30" s="0" t="n">
         <f aca="false">M29*M20</f>
         <v>79.8</v>
       </c>
@@ -2208,16 +2214,15 @@
         <f aca="false">N29*N20</f>
         <v>0</v>
       </c>
-      <c r="O30" s="13" t="n">
+      <c r="O30" s="12" t="n">
         <f aca="false">O29*O20</f>
         <v>29</v>
       </c>
-      <c r="P30" s="13" t="n">
+      <c r="P30" s="12" t="n">
         <f aca="false">P29*2</f>
         <v>19.8</v>
       </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7" t="n">
+      <c r="R30" s="0" t="n">
         <f aca="false">R29*R20</f>
         <v>0</v>
       </c>
@@ -2229,80 +2234,64 @@
         <f aca="false">T29*T20</f>
         <v>0</v>
       </c>
-      <c r="U30" s="13" t="n">
+      <c r="U30" s="12" t="n">
         <f aca="false">U29*U20</f>
         <v>27.8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15"/>
+      <c r="B31" s="14"/>
       <c r="E31" s="5"/>
       <c r="H31" s="5"/>
       <c r="J31" s="6"/>
-      <c r="M31" s="7"/>
       <c r="N31" s="6"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>37</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>76</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="M32" s="7"/>
       <c r="N32" s="6"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="7"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
       <c r="E33" s="5"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="16"/>
       <c r="J33" s="6"/>
-      <c r="M33" s="7"/>
       <c r="N33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="7"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="16" t="s">
         <v>78</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="M34" s="7"/>
       <c r="N34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="7"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -2312,40 +2301,37 @@
         <v>3.9</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="7" t="n">
         <v>23.9</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="7" t="n">
         <v>3.2</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="8" t="n">
+      <c r="H35" s="18"/>
+      <c r="I35" s="7" t="n">
         <v>54</v>
       </c>
       <c r="J35" s="6"/>
-      <c r="K35" s="20" t="n">
+      <c r="K35" s="19" t="n">
         <v>13.5</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="19"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="20" t="n">
+      <c r="O35" s="19" t="n">
         <v>14.4</v>
       </c>
       <c r="P35" s="6" t="n">
         <v>14.4</v>
       </c>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="7"/>
-      <c r="W35" s="13" t="n">
+      <c r="Q35" s="1"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="W35" s="12" t="n">
         <v>10.9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="0" t="n">
         <f aca="false">C20*C35</f>
         <v>87.5</v>
@@ -2358,29 +2344,29 @@
         <f aca="false">E20*E35</f>
         <v>0</v>
       </c>
-      <c r="F36" s="13" t="n">
+      <c r="F36" s="10" t="n">
         <f aca="false">F20*F35</f>
         <v>71.7</v>
       </c>
-      <c r="G36" s="13" t="n">
+      <c r="G36" s="10" t="n">
         <f aca="false">G20*G35</f>
         <v>9.6</v>
       </c>
-      <c r="H36" s="19" t="n">
+      <c r="H36" s="18" t="n">
         <f aca="false">H20*H35</f>
         <v>0</v>
       </c>
-      <c r="I36" s="13" t="n">
+      <c r="I36" s="20" t="n">
         <f aca="false">I20*I35</f>
         <v>108</v>
       </c>
       <c r="J36" s="6"/>
-      <c r="K36" s="22" t="n">
+      <c r="K36" s="21" t="n">
         <f aca="false">K20*K35</f>
         <v>54</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="7" t="n">
+      <c r="L36" s="21"/>
+      <c r="M36" s="0" t="n">
         <f aca="false">M20*M35</f>
         <v>0</v>
       </c>
@@ -2388,7 +2374,7 @@
         <f aca="false">N20*N35</f>
         <v>0</v>
       </c>
-      <c r="O36" s="22" t="n">
+      <c r="O36" s="21" t="n">
         <f aca="false">O20*O35</f>
         <v>28.8</v>
       </c>
@@ -2396,18 +2382,15 @@
         <f aca="false">P20*P35</f>
         <v>86.4</v>
       </c>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="7"/>
-      <c r="W36" s="13" t="n">
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="W36" s="20" t="n">
         <f aca="false">W35*W20</f>
         <v>10.9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
       <c r="E37" s="5"/>
       <c r="H37" s="5"/>
       <c r="J37" s="6"/>
@@ -2415,10 +2398,9 @@
       <c r="P37" s="6"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="23" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="22" t="s">
         <v>80</v>
       </c>
       <c r="E38" s="5"/>
@@ -2429,7 +2411,9 @@
       <c r="M38" s="0" t="n">
         <v>37.2</v>
       </c>
-      <c r="N38" s="6"/>
+      <c r="N38" s="6" t="n">
+        <v>0.8</v>
+      </c>
       <c r="P38" s="6" t="n">
         <v>11.3</v>
       </c>
@@ -2441,10 +2425,10 @@
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="Z38" s="13" t="n">
+      <c r="Z38" s="12" t="n">
         <v>3.9</v>
       </c>
-      <c r="AA38" s="13" t="n">
+      <c r="AA38" s="12" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2461,13 +2445,13 @@
         <f aca="false">L20*L38</f>
         <v>0</v>
       </c>
-      <c r="M39" s="0" t="n">
+      <c r="M39" s="23" t="n">
         <f aca="false">M20*M38</f>
         <v>74.4</v>
       </c>
-      <c r="N39" s="0" t="n">
+      <c r="N39" s="13" t="n">
         <f aca="false">N20*N38</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O39" s="0" t="n">
         <f aca="false">O20*O38</f>
@@ -2477,11 +2461,11 @@
         <f aca="false">P20*P38</f>
         <v>67.8</v>
       </c>
-      <c r="Q39" s="13" t="n">
+      <c r="Q39" s="20" t="n">
         <f aca="false">Q20*Q38</f>
         <v>37.8</v>
       </c>
-      <c r="R39" s="13" t="n">
+      <c r="R39" s="20" t="n">
         <f aca="false">R20*R38</f>
         <v>13.6</v>
       </c>
@@ -2509,11 +2493,11 @@
         <f aca="false">Y20*Y38</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="13" t="n">
+      <c r="Z39" s="20" t="n">
         <f aca="false">Z20*Z38</f>
         <v>3.9</v>
       </c>
-      <c r="AA39" s="13" t="n">
+      <c r="AA39" s="20" t="n">
         <f aca="false">AA20*AA38</f>
         <v>9</v>
       </c>
@@ -2546,30 +2530,30 @@
         <v>82</v>
       </c>
       <c r="J45" s="6"/>
-      <c r="M45" s="13" t="n">
+      <c r="M45" s="12" t="n">
         <v>29.95</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>15.59</v>
       </c>
-      <c r="V45" s="13" t="n">
+      <c r="V45" s="20" t="n">
         <v>12.59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="6"/>
-      <c r="M46" s="13" t="n">
+      <c r="M46" s="20" t="n">
         <f aca="false">M45*M20</f>
         <v>59.9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="6"/>
-      <c r="M47" s="13"/>
+      <c r="M47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="6"/>
-      <c r="M48" s="13"/>
+      <c r="M48" s="12"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="24" t="s">
@@ -2589,7 +2573,7 @@
       <c r="J51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="13"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
